--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1280.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1280.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8461441256165309</v>
+        <v>1.141481995582581</v>
       </c>
       <c r="B1">
-        <v>1.543522651904215</v>
+        <v>2.232837915420532</v>
       </c>
       <c r="C1">
-        <v>5.325565743075547</v>
+        <v>11.07173156738281</v>
       </c>
       <c r="D1">
-        <v>3.708535387751244</v>
+        <v>2.332935571670532</v>
       </c>
       <c r="E1">
-        <v>1.493703538890435</v>
+        <v>1.274168729782104</v>
       </c>
     </row>
   </sheetData>
